--- a/data/processed/basaltic_glasses/kraw_summaries_Edi06.xlsx
+++ b/data/processed/basaltic_glasses/kraw_summaries_Edi06.xlsx
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -495,22 +495,22 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13441.37</v>
+        <v>2062.87</v>
       </c>
       <c r="L2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13441.39</v>
+        <v>2062.87</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F3">
         <v>0.07000000000000001</v>
@@ -542,19 +542,19 @@
         <v>0.09</v>
       </c>
       <c r="I3">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J3">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>77.26000000000001</v>
+        <v>73.28</v>
       </c>
       <c r="L3">
         <v>0.09</v>
       </c>
       <c r="M3">
-        <v>80.93000000000001</v>
+        <v>73.37</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F4">
         <v>0.06</v>
@@ -586,19 +586,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I4">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J4">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
-        <v>84.08</v>
+        <v>111.99</v>
       </c>
       <c r="L4">
         <v>0.07000000000000001</v>
       </c>
       <c r="M4">
-        <v>87.45999999999999</v>
+        <v>112.04</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F5">
         <v>0.14</v>
@@ -627,22 +627,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I5">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J5">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="K5">
-        <v>38.15</v>
+        <v>37.43</v>
       </c>
       <c r="L5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="M5">
-        <v>45.12</v>
+        <v>37.6</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="F6">
         <v>-0.04</v>
@@ -671,22 +671,22 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="I6">
-        <v>102.86</v>
+        <v>100.07</v>
       </c>
       <c r="J6">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="K6">
-        <v>115.62</v>
+        <v>158.14</v>
       </c>
       <c r="L6">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="M6">
-        <v>118.1</v>
+        <v>158.18</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
